--- a/13_practice/files/practice1_TypeA_result.xlsx
+++ b/13_practice/files/practice1_TypeA_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\13_practice\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DCB495-4852-4BA8-BE3B-DFF8434DBCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ACD574-25F2-4F55-A754-4EA1A4019766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{E536B33A-31B5-47F3-86D8-736BD1DE8892}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +179,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,8 +216,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629FDB6F-1935-4C99-ABE0-D631A846B6B8}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -533,16 +552,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -717,5 +736,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/13_practice/files/practice1_TypeA_result.xlsx
+++ b/13_practice/files/practice1_TypeA_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\13_practice\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ACD574-25F2-4F55-A754-4EA1A4019766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4314C0-1BA6-4338-AB85-5EE54C3276E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{E536B33A-31B5-47F3-86D8-736BD1DE8892}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{E536B33A-31B5-47F3-86D8-736BD1DE8892}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,138 +25,206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>ClientID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ClientName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ClientCountry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hashcode</t>
-  </si>
-  <si>
-    <t>BL17488</t>
-  </si>
-  <si>
-    <t>Mabel Suttle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU90268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Veda Blaylock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a6b096afca2f039f0e9f61188f80de67f2476e2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT44139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allan Camara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f4e666ec8296ea5e5db3af7f7cb6b3dd59b45d56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH61370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carly Sitzman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84b7d766198cd63acba0a76647f3de62b7c8be60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW19167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lavinia Froehlich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Romania</t>
-  </si>
-  <si>
-    <t>121433c029217dd32ee98a4b3e7754e22df47313</t>
-  </si>
-  <si>
-    <t>BA92200</t>
-  </si>
-  <si>
-    <t>Mayra Monzon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2312ee793fd86f1f3ae7f69a633429cf67a79f60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL88634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeramy Rickenbacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d86e038d31426c17784799b602bbc18b202efa8d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW82952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jesica Rutt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97169a1bf1d2f9955c63d3d90deb0dbb3f957ec1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD88069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Craig Tober</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>France</t>
-  </si>
-  <si>
-    <t>890dd292afe16ef0694d168bf879a6b0ec33d8c0</t>
-  </si>
-  <si>
-    <t>KJ93404</t>
-  </si>
-  <si>
-    <t>Garret Reising</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>3aa6f819b500003d5a8de3a99cf6554d75ad2277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0bc811f30acc1f6a389434e6230c5d03c60d5f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RN58561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alvaro Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e675137af8af1cd9a0d777e5925b8a51d40213ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI44163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edison Byam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ca93ad31779216eec94933591498effdb72fda4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD38755</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austin Villacorta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eb2e1789f0c226b1d7079f1845997da4f4aea16d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GF87351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Thu Figueredo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>62d99e30c95596c7598721ec16e9ae819203f262</t>
-  </si>
-  <si>
-    <t>FU72098</t>
-  </si>
-  <si>
-    <t>Ervin Wald</t>
-  </si>
-  <si>
-    <t>5ccd7a98bce54e0382afb490670bc828b8f75d7c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX97615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elidia Gaulke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85b2b718025876a1d6019ccdf180b1291effed23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD55686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digna Buffaloe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b9ef4e69a1129f322780e6cb3717652002e56db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CX76110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mirian Derosier</t>
-  </si>
-  <si>
-    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cb65bc258da1eeae2150f230234171f1292f2b38</t>
-  </si>
-  <si>
-    <t>RI52540</t>
-  </si>
-  <si>
-    <t>Camilla Escarcega</t>
-  </si>
-  <si>
-    <t>5a0707b26f6c23ee1c208fe93227165739914ef5</t>
-  </si>
-  <si>
-    <t>AD88069</t>
-  </si>
-  <si>
-    <t>Craig Tober</t>
-  </si>
-  <si>
-    <t>c0bc811f30acc1f6a389434e6230c5d03c60d5f2</t>
-  </si>
-  <si>
-    <t>FP75053</t>
-  </si>
-  <si>
-    <t>Bud Baril</t>
-  </si>
-  <si>
-    <t>bcf3c106338637544a0bc79b004d193624c0fb95</t>
-  </si>
-  <si>
-    <t>EQ75283</t>
-  </si>
-  <si>
-    <t>Kizzie Kohen</t>
-  </si>
-  <si>
-    <t>38582b3110d71432676180cb677fba459dc3f68f</t>
-  </si>
-  <si>
-    <t>UK18656</t>
-  </si>
-  <si>
-    <t>Raymond Crider</t>
-  </si>
-  <si>
-    <t>272c801bb3f9ebe07abd9524097069c1908155ec</t>
-  </si>
-  <si>
-    <t>RN58561</t>
-  </si>
-  <si>
-    <t>Alvaro Dash</t>
-  </si>
-  <si>
-    <t>e675137af8af1cd9a0d777e5925b8a51d40213ec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629FDB6F-1935-4C99-ABE0-D631A846B6B8}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -587,35 +655,35 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -643,21 +711,21 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -671,7 +739,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -685,7 +753,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -699,7 +767,7 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -713,7 +781,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -727,10 +795,38 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
